--- a/PCA/Results/XGBoost.xlsx
+++ b/PCA/Results/XGBoost.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\Даша\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\Даша\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737080C-A333-4FE5-8C7B-1F656161AC30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D373A4EA-B409-4ADE-AED8-EBF85009F407}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение моделей" sheetId="1" r:id="rId1"/>
-    <sheet name="Без отбора признаков рег." sheetId="2" r:id="rId2"/>
+    <sheet name="Сравнение моделей CV" sheetId="8" r:id="rId2"/>
+    <sheet name="Без отбора признаков рег." sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="69">
   <si>
     <t>Без отбора</t>
   </si>
@@ -171,13 +172,70 @@
   </si>
   <si>
     <t>{'alpha': 0, 'lambda': 0, 'learning_rate': 0.3, 'n_estimators': 9100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.5, 'n_estimators': 8000}</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'n_estimators': 5630}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.5, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.5, 'n_estimators': 890}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'n_estimators': 890}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.3, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 890}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.2, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.1, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.3, 'n_estimators': 2470}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 1680}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 4840}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'n_estimators': 8000}</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Весна</t>
+  </si>
+  <si>
+    <t>Лето</t>
+  </si>
+  <si>
+    <t>Осень</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +275,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -397,11 +467,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +569,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,6 +582,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -752,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,45 +921,45 @@
     <col min="22" max="22" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="28" width="9.140625" style="4" customWidth="1"/>
     <col min="29" max="29" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="30" max="31" width="9.140625" style="4" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="23" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-      <c r="Q1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="Q1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
-      <c r="X1" s="20" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="X1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="23"/>
     </row>
     <row r="2" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -2674,11 +2830,2485 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1ED430-6469-40F7-A2DE-F00D10AF0E12}">
+  <dimension ref="A1:AG41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="N1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30"/>
+      <c r="S1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+      <c r="AA1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+    </row>
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32">
+        <v>644.14</v>
+      </c>
+      <c r="C3" s="32">
+        <v>738.28</v>
+      </c>
+      <c r="D3" s="33">
+        <v>725.01</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="32">
+        <v>833.31</v>
+      </c>
+      <c r="H3" s="32">
+        <v>859.05</v>
+      </c>
+      <c r="I3" s="32">
+        <v>806.91</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="33">
+        <v>-0.83794192591507388</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="32">
+        <v>494.14</v>
+      </c>
+      <c r="P3" s="32">
+        <v>518.29</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>476.5</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="32">
+        <v>507.13</v>
+      </c>
+      <c r="U3" s="32">
+        <v>521.67999999999995</v>
+      </c>
+      <c r="V3" s="32">
+        <v>461.7</v>
+      </c>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>0.49585222832967518</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>520.53</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>536.4</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>406.37</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="33">
+        <v>-0.7734492437208238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="32">
+        <v>18.88</v>
+      </c>
+      <c r="C4" s="32">
+        <v>20.21</v>
+      </c>
+      <c r="D4" s="33">
+        <v>21.22</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="32">
+        <v>21.22</v>
+      </c>
+      <c r="H4" s="32">
+        <v>21.63</v>
+      </c>
+      <c r="I4" s="32">
+        <v>23.58</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="33">
+        <v>-0.66497442261700301</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="32">
+        <v>17.13</v>
+      </c>
+      <c r="P4" s="32">
+        <v>17.57</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="32">
+        <v>17.18</v>
+      </c>
+      <c r="U4" s="32">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="V4" s="32">
+        <v>15.21</v>
+      </c>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>0.67129064017705975</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>17.8</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>15.8</v>
+      </c>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="33">
+        <v>-0.45144999146397952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.76</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.82</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.93</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="33">
+        <v>-0.47129401575926649</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0.76</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0.79</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0.77</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0.73</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>-0.2346306656688599</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0.82</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>0.84</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>0.72</v>
+      </c>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="33">
+        <v>-0.45025433669613779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.68</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.51</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0.27922507054574502</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>0.33759306250998161</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="AD6" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG6" s="33">
+        <v>0.43059297500812299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
+        <v>-1.03</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="N7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>-0.28598385437732637</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="33">
+        <v>-0.35706497961451461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG8" s="33">
+        <v>-0.35293679237831121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="33">
+        <v>-0.30894556588920552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>0.25791668476874108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33"/>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="32"/>
+      <c r="X12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32">
+        <v>56.27</v>
+      </c>
+      <c r="C13" s="32">
+        <v>64.66</v>
+      </c>
+      <c r="D13" s="33">
+        <v>52.94</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="32">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="H13" s="32">
+        <v>68.44</v>
+      </c>
+      <c r="I13" s="32">
+        <v>53.95</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="33">
+        <v>-0.71301350474315783</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="32">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="P13" s="32">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="32">
+        <v>34.51</v>
+      </c>
+      <c r="U13" s="32">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="V13" s="32">
+        <v>35.57</v>
+      </c>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>0.59460005995706777</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="32">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="AC13" s="32">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>27.97</v>
+      </c>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="33">
+        <v>-0.69365165868766621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <v>5.58</v>
+      </c>
+      <c r="C14" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="D14" s="33">
+        <v>6.08</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="32">
+        <v>6.19</v>
+      </c>
+      <c r="H14" s="32">
+        <v>6.31</v>
+      </c>
+      <c r="I14" s="32">
+        <v>6.13</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="33">
+        <v>-0.67875010549489168</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="32">
+        <v>4.18</v>
+      </c>
+      <c r="P14" s="32">
+        <v>4.38</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="32">
+        <v>4.24</v>
+      </c>
+      <c r="U14" s="32">
+        <v>4.34</v>
+      </c>
+      <c r="V14" s="32">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>0.42988030379581638</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="32">
+        <v>4.09</v>
+      </c>
+      <c r="AC14" s="32">
+        <v>4.22</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>3.95</v>
+      </c>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14" s="33">
+        <v>-0.62559846369451999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.43</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.53</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0.54</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0.24529434507850961</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>-0.27565572939203109</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="AD15" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="33">
+        <v>-0.42755000651858133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="32">
+        <v>0.53</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.54</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0.53</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0.2224218224672975</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0.34</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>0.48</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="V16" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>0.2493280627175867</v>
+      </c>
+      <c r="AA16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" s="32">
+        <v>0.45</v>
+      </c>
+      <c r="AC16" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="AD16" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG16" s="33">
+        <v>0.40205455754172759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="32">
+        <v>0.48</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33">
+        <v>-2.82</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="N17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="33">
+        <v>-0.2238761111135503</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="33">
+        <v>0.35874716684382058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="33"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG18" s="33">
+        <v>0.27436772286128508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="33"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG19" s="33">
+        <v>-0.2412508771974414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG20" s="33">
+        <v>0.22397190688804799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="33">
+        <v>-0.2169222927625144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="32"/>
+      <c r="X22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD22" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32">
+        <v>22.26</v>
+      </c>
+      <c r="C23" s="32">
+        <v>25.32</v>
+      </c>
+      <c r="D23" s="33">
+        <v>27.95</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="32">
+        <v>25.54</v>
+      </c>
+      <c r="H23" s="32">
+        <v>26.03</v>
+      </c>
+      <c r="I23" s="32">
+        <v>26.24</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="33">
+        <v>-0.46229243541647591</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="32">
+        <v>23.27</v>
+      </c>
+      <c r="P23" s="32">
+        <v>24.89</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>21.81</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="32">
+        <v>25.57</v>
+      </c>
+      <c r="U23" s="32">
+        <v>26.22</v>
+      </c>
+      <c r="V23" s="32">
+        <v>27.84</v>
+      </c>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>0.55298130430916848</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="32">
+        <v>22.38</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>24.55</v>
+      </c>
+      <c r="AD23" s="32">
+        <v>19.14</v>
+      </c>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG23" s="33">
+        <v>-0.60608966272269538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="32">
+        <v>3.16</v>
+      </c>
+      <c r="C24" s="32">
+        <v>3.41</v>
+      </c>
+      <c r="D24" s="33">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="32">
+        <v>3.42</v>
+      </c>
+      <c r="H24" s="32">
+        <v>3.46</v>
+      </c>
+      <c r="I24" s="32">
+        <v>3.96</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="33">
+        <v>-0.37646777207355209</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="32">
+        <v>3.23</v>
+      </c>
+      <c r="P24" s="32">
+        <v>3.33</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>3.66</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="U24" s="32">
+        <v>3.43</v>
+      </c>
+      <c r="V24" s="32">
+        <v>4.04</v>
+      </c>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>0.21992276902333799</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="32">
+        <v>3.16</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>3.27</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>3.52</v>
+      </c>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG24" s="33">
+        <v>-0.51199409215152414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="D25" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="33">
+        <v>-0.29413124378925942</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="P25" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>0.32</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="U25" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="V25" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>-0.50608032811231873</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB25" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC25" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AD25" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG25" s="33">
+        <v>-0.48407901279610688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.33</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="33">
+        <v>-0.27007021969064088</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0.36</v>
+      </c>
+      <c r="P26" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T26" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="U26" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="V26" s="32">
+        <v>0.18</v>
+      </c>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="33"/>
+      <c r="AA26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB26" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="AC26" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="AD26" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG26" s="33">
+        <v>-0.41229579474294381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33">
+        <v>-3.53</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="33">
+        <v>-0.21846131589528919</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="33"/>
+      <c r="AA27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32">
+        <v>0.23</v>
+      </c>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" s="33">
+        <v>-0.40873611959658562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="33"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG28" s="33">
+        <v>-0.36073754282671588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="33"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="33">
+        <v>0.2397671088267041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG30" s="33">
+        <v>-0.22968907099619559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="33"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG31" s="33">
+        <v>0.20029083882465551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="32"/>
+      <c r="X32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="32">
+        <v>15.78</v>
+      </c>
+      <c r="C33" s="32">
+        <v>19.73</v>
+      </c>
+      <c r="D33" s="33">
+        <v>49.56</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="32">
+        <v>27.04</v>
+      </c>
+      <c r="H33" s="32">
+        <v>28.35</v>
+      </c>
+      <c r="I33" s="32">
+        <v>57.03</v>
+      </c>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="33">
+        <v>-0.57285826556035135</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="32">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="P33" s="32">
+        <v>18.14</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>27.53</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="32">
+        <v>18.78</v>
+      </c>
+      <c r="U33" s="32">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="V33" s="32">
+        <v>26.93</v>
+      </c>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="33">
+        <v>0.5367416327884782</v>
+      </c>
+      <c r="AA33" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="32">
+        <v>14.46</v>
+      </c>
+      <c r="AC33" s="32">
+        <v>15.7</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>23.98</v>
+      </c>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG33" s="33">
+        <v>-0.69343964039037786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="32">
+        <v>3.04</v>
+      </c>
+      <c r="C34" s="32">
+        <v>3.39</v>
+      </c>
+      <c r="D34" s="33">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="32">
+        <v>3.82</v>
+      </c>
+      <c r="H34" s="32">
+        <v>3.91</v>
+      </c>
+      <c r="I34" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="33">
+        <v>-0.56588875792584825</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="32">
+        <v>3.04</v>
+      </c>
+      <c r="P34" s="32">
+        <v>3.17</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="32">
+        <v>3.15</v>
+      </c>
+      <c r="U34" s="32">
+        <v>3.23</v>
+      </c>
+      <c r="V34" s="32">
+        <v>3.39</v>
+      </c>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="33">
+        <v>0.27811242391914143</v>
+      </c>
+      <c r="AA34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB34" s="32">
+        <v>2.76</v>
+      </c>
+      <c r="AC34" s="32">
+        <v>2.88</v>
+      </c>
+      <c r="AD34" s="32">
+        <v>3.13</v>
+      </c>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG34" s="33">
+        <v>-0.55861783385008701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="D35" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="33">
+        <v>-0.38832607251265322</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="P35" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="Q35" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="32">
+        <v>0.31</v>
+      </c>
+      <c r="U35" s="32">
+        <v>0.32</v>
+      </c>
+      <c r="V35" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="33">
+        <v>-0.48057109521686608</v>
+      </c>
+      <c r="AA35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB35" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC35" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="AD35" s="32">
+        <v>0.38</v>
+      </c>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG35" s="33">
+        <v>-0.45744659159154338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="32">
+        <v>0.71</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0.63</v>
+      </c>
+      <c r="D36" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.51</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0.36</v>
+      </c>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0.29013033835653562</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="P36" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>0.39</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T36" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="V36" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="33"/>
+      <c r="AA36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB36" s="32">
+        <v>0.54</v>
+      </c>
+      <c r="AC36" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="AD36" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36" s="33">
+        <v>-0.44935076460144852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="35">
+        <v>0.68</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="36">
+        <v>-0.2407346044766237</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="35">
+        <v>0.45</v>
+      </c>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35">
+        <v>0.33</v>
+      </c>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="36"/>
+      <c r="AA37" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB37" s="32">
+        <v>0.53</v>
+      </c>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32">
+        <v>0.21</v>
+      </c>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG37" s="33">
+        <v>0.44022273493166181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG38" s="33">
+        <v>0.29012352091086568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG39" s="33">
+        <v>-0.28808430091656628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG40" s="33">
+        <v>0.25357213435757447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG41" s="36">
+        <v>0.22353259366212841</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
